--- a/BalanceSheet/GIS_bal.xlsx
+++ b/BalanceSheet/GIS_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-43600000.0</v>
+        <v>1759000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-100000000.0</v>
+        <v>1713000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-158600000.0</v>
+        <v>1605000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>100600000.0</v>
+        <v>1426000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>169700000.0</v>
+        <v>1542000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1719500000.0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-11100000.0</v>
+        <v>3392000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>211700000.0</v>
+        <v>3399000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-45900000.0</v>
+        <v>3184000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>272600000.0</v>
+        <v>3248000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-125800000.0</v>
+        <v>2932000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>3063000000.0</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>68600000.0</v>
+        <v>2006000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>19300000.0</v>
+        <v>1939000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>23000000.0</v>
+        <v>1925000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-31300000.0</v>
+        <v>1947000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>11600000.0</v>
+        <v>2027000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>2015900000.0</v>
